--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_217.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_217.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,493 +488,500 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[('0:00:08.340000', '0:00:13.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[('0:00:21.080000', '0:00:23.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:49.060000', '0:00:57.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.8, 48.54)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.38, 3.7)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000'), ('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:01:02.860000', '0:01:08.740000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -978,175 +990,174 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[('0:01:30.780000', '0:01:41.320000'), ('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:26.200000', '0:00:33.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.52, 22.52)]</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1165,9 @@
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.014823, 6.126439)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
